--- a/mobt-plan.xlsx
+++ b/mobt-plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\mobt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF3EDD1-65C5-49C2-AC19-479D2AEC85D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91996ECB-19DA-4FEC-B542-018FFC2565F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8885A9D7-697E-416D-BB6D-BCC49D7114CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8885A9D7-697E-416D-BB6D-BCC49D7114CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>users</t>
   </si>
@@ -216,6 +217,9 @@
   </si>
   <si>
     <t>CIDR</t>
+  </si>
+  <si>
+    <t>login_users</t>
   </si>
 </sst>
 </file>
@@ -568,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95815C48-25F6-4DE5-A482-AFA8F16E35EF}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,21 +597,12 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
         <v>4</v>
       </c>
       <c r="I3" t="s">
@@ -622,21 +617,12 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
         <v>7</v>
       </c>
       <c r="I4" t="s">
@@ -653,31 +639,22 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -685,16 +662,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -704,31 +678,28 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -742,22 +713,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
@@ -770,19 +735,34 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,23 +773,38 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
+      <c r="D19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,35 +812,26 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,19 +839,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -875,22 +849,25 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -901,12 +878,15 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -917,18 +897,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -940,71 +923,80 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,7 +1004,51 @@
         <v>11</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4362CD2-2819-4FAB-B66D-5E5ADBBE777F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mobt-plan.xlsx
+++ b/mobt-plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\mobt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91996ECB-19DA-4FEC-B542-018FFC2565F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43FECFB-081C-4700-9448-88209D0FD782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8885A9D7-697E-416D-BB6D-BCC49D7114CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8885A9D7-697E-416D-BB6D-BCC49D7114CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases tables" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>JSON</t>
   </si>
   <si>
-    <t>database: PostgreSQL</t>
-  </si>
-  <si>
     <t>tariffs</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>popularity</t>
   </si>
   <si>
-    <t>REAL</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>login_users</t>
+  </si>
+  <si>
+    <t>database: MySQL</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95815C48-25F6-4DE5-A482-AFA8F16E35EF}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -741,28 +741,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
         <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,16 +795,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,18 +820,18 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -849,25 +849,25 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,10 +884,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,22 +897,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,13 +923,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,19 +939,19 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -970,16 +970,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1006,27 +1006,27 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
         <v>54</v>
       </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4362CD2-2819-4FAB-B66D-5E5ADBBE777F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
